--- a/QAlegend/src/main/java/resources/addUnits.xlsx
+++ b/QAlegend/src/main/java/resources/addUnits.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-510" yWindow="2310" windowWidth="15750" windowHeight="6540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15750" windowHeight="6540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,11 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:P20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>name</t>
   </si>
@@ -27,16 +26,16 @@
     <t>shortname</t>
   </si>
   <si>
-    <t>smallbox</t>
+    <t>allowdecimal</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Abox.</t>
   </si>
   <si>
     <t>box</t>
-  </si>
-  <si>
-    <t>allowdecimal</t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -370,12 +369,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
   </cols>
@@ -388,18 +388,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -447,10 +447,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>